--- a/sessions/4/artifacts/leop-telemetry.xlsx
+++ b/sessions/4/artifacts/leop-telemetry.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\pwsat\mission\sessions\4\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ECC8AA-E4F3-4AA2-BE52-F90A60AD2410}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341EDD6D-F62D-4919-9B55-823B4727B140}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="23400" windowHeight="12750" xr2:uid="{0438D749-CAAB-43A6-B055-417F9969BD42}"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="23400" windowHeight="12750" xr2:uid="{0438D749-CAAB-43A6-B055-417F9969BD42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Gyroscope" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DaneZewnętrzne_1" localSheetId="0" hidden="1">Arkusz2!$A$1:$PY$27</definedName>
+    <definedName name="DaneZewnętrzne_1" localSheetId="0" hidden="1">Data!$A$1:$PY$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="495">
   <si>
     <t/>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>06: System,0318: Uptime,unit</t>
-  </si>
-  <si>
-    <t>07: File System,0340: Free Space</t>
   </si>
   <si>
     <t>08: Antenna,0372: Antenna 1 Deployment Switch Ch A,converted</t>
@@ -2192,6 +2189,1265 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gyrscope (deg/s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$FM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10: Gyroscope,0510: X measurement,converted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$FM$2:$FM$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-2.7130434782608601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0434782608695601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4086956521739098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.4782608695652102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.69565217391304301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0608695652173901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8086956521739099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7391304347826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.13043478260869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8782608695652101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48695652173913001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.1565217391304299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62608695652173896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9565217391304293E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.2695652173913001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.0608695652173901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0869565217391299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.7826086956521698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.9913043478260799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.13043478260869</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.92173913043478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.13043478260869</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.7826086956521698</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.4347826086956501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.0869565217391299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0076-41C8-B5DB-E643D0200255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$FP$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10: Gyroscope,0526: Y measurement,converted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$FP$2:$FP$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-0.97391304347826002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.8086956521739099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7826086956521698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3391304347826001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.34782608695652101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6695652173913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9913043478260799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.29565217391304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8086956521739099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.83478260869565202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.8260869565217299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.7739130434782604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.2434782608695603</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.5217391304347796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.5478260869565199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.75652173913043</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.8086956521739099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.2695652173913001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.7130434782608601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.8521739130434698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.5043478260869501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.6434782608695602</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7826086956521698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.7130434782608601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.3652173913043399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0076-41C8-B5DB-E643D0200255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$FS$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10: Gyroscope,0542: Z measurement,converted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$FS$2:$FS$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>7.5130434782608697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5130434782608697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6521739130434696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.37391304347826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0956521739130398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6521739130434696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0956521739130398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0956521739130398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4434782608695604</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1391304347826008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2086956521739101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9826086956521696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4782608695652102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.76521739130434696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62608695652173896</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27826086956521701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90434782608695596</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8782608695652101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.46086956521739</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2521739130434699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97391304347826002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.46086956521739</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.208695652173913</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5304347826086899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3217391304347801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0076-41C8-B5DB-E643D0200255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="863274184"/>
+        <c:axId val="863274512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="863274184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863274512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="863274512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863274184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D31DB4-9302-431D-A7C9-2193C9F00DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DaneZewnętrzne_1" connectionId="1" xr16:uid="{1944BC88-87F7-4621-9487-7EA8DB468836}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="442">
@@ -2685,7 +3941,7 @@
     <tableColumn id="34" xr3:uid="{BBBC4DA3-F3A7-4573-A035-D19E80689CE5}" uniqueName="34" name="06: System,0318: Uptime,converted" queryTableFieldId="34"/>
     <tableColumn id="35" xr3:uid="{A60204D9-DB08-42D3-9B4D-11311BF6532A}" uniqueName="35" name="06: System,0318: Uptime,raw" queryTableFieldId="35"/>
     <tableColumn id="36" xr3:uid="{852DD140-15CF-48D5-9D17-BEBB07FB8B91}" uniqueName="36" name="06: System,0318: Uptime,unit" queryTableFieldId="36" dataDxfId="194"/>
-    <tableColumn id="37" xr3:uid="{7CAA53B6-DDCA-4FD4-8A0C-918DF91D35E1}" uniqueName="37" name="07: File System,0340: Free Space" queryTableFieldId="37"/>
+    <tableColumn id="37" xr3:uid="{7CAA53B6-DDCA-4FD4-8A0C-918DF91D35E1}" uniqueName="37" name="1" queryTableFieldId="37"/>
     <tableColumn id="38" xr3:uid="{A92BF04F-AAA9-4AB8-95C9-B94B45A46BC9}" uniqueName="38" name="08: Antenna,0372: Antenna 1 Deployment Switch Ch A,converted" queryTableFieldId="38"/>
     <tableColumn id="39" xr3:uid="{ADFD8BC1-1B79-4725-826F-A529FCF19574}" uniqueName="39" name="08: Antenna,0372: Antenna 1 Deployment Switch Ch A,raw" queryTableFieldId="39"/>
     <tableColumn id="40" xr3:uid="{A56B2985-3369-4CB8-B9CB-0A527C403E9D}" uniqueName="40" name="08: Antenna,0372: Antenna 1 Deployment Switch Ch A,unit" queryTableFieldId="40" dataDxfId="193"/>
@@ -3394,8 +4650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1E6F-2E11-4BBE-880E-C74FA74D8184}">
   <dimension ref="A1:PY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="JU1" workbookViewId="0">
-      <selection activeCell="GL11" sqref="GL11:GL27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3938,1219 +5194,1219 @@
         <v>79</v>
       </c>
       <c r="AK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" t="s">
         <v>80</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>81</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>82</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>83</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>84</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>85</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>86</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>87</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>89</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>91</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>92</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>93</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>94</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>95</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>96</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>97</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>98</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>99</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>100</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>101</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>102</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>103</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>104</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>105</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>106</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>107</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>108</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>109</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>110</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>111</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>112</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>113</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>114</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>115</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>116</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>117</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>118</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>119</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>120</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>121</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>122</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>123</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>124</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>125</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>126</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>127</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>128</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>129</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>130</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>131</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>132</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>133</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>134</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>135</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>136</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>137</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>138</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>139</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>140</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>141</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>142</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>143</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>144</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>145</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>146</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>147</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>148</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>149</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>150</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>151</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>152</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>153</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>154</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>155</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>156</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>157</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>158</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>159</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>160</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>161</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>162</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>163</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>164</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>165</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>166</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>167</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>168</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>169</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>170</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>171</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>172</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>173</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>174</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>175</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>176</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>177</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>178</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>179</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>180</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>181</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>182</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>183</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>184</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>185</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>186</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>187</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>188</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>189</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>190</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>191</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>192</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>193</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>194</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>195</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>196</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>197</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>198</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>199</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>200</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>201</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>202</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>203</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>204</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>205</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>206</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>207</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>208</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>209</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>210</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>211</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>212</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>213</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>214</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>215</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>216</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>217</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>218</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>219</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>220</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>221</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
         <v>222</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FY1" t="s">
         <v>223</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FZ1" t="s">
         <v>224</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GA1" t="s">
         <v>225</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GB1" t="s">
         <v>226</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GC1" t="s">
         <v>227</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GD1" t="s">
         <v>228</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GE1" t="s">
         <v>229</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GF1" t="s">
         <v>230</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GG1" t="s">
         <v>231</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GH1" t="s">
         <v>232</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GI1" t="s">
         <v>233</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="GJ1" t="s">
         <v>234</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="GK1" t="s">
         <v>235</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="GL1" t="s">
         <v>236</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="GM1" t="s">
         <v>237</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="GN1" t="s">
         <v>238</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="GO1" t="s">
         <v>239</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="GP1" t="s">
         <v>240</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="GQ1" t="s">
         <v>241</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="GR1" t="s">
         <v>242</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="GS1" t="s">
         <v>243</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="GT1" t="s">
         <v>244</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="GU1" t="s">
         <v>245</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="GV1" t="s">
         <v>246</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GW1" t="s">
         <v>247</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="GX1" t="s">
         <v>248</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="GY1" t="s">
         <v>249</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="GZ1" t="s">
         <v>250</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="HA1" t="s">
         <v>251</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HB1" t="s">
         <v>252</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HC1" t="s">
         <v>253</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HD1" t="s">
         <v>254</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HE1" t="s">
         <v>255</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="HF1" t="s">
         <v>256</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="HG1" t="s">
         <v>257</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="HH1" t="s">
         <v>258</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="HI1" t="s">
         <v>259</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="HJ1" t="s">
         <v>260</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="HK1" t="s">
         <v>261</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="HL1" t="s">
         <v>262</v>
       </c>
-      <c r="HL1" t="s">
+      <c r="HM1" t="s">
         <v>263</v>
       </c>
-      <c r="HM1" t="s">
+      <c r="HN1" t="s">
         <v>264</v>
       </c>
-      <c r="HN1" t="s">
+      <c r="HO1" t="s">
         <v>265</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="HP1" t="s">
         <v>266</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="HQ1" t="s">
         <v>267</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="HR1" t="s">
         <v>268</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="HS1" t="s">
         <v>269</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="HT1" t="s">
         <v>270</v>
       </c>
-      <c r="HT1" t="s">
+      <c r="HU1" t="s">
         <v>271</v>
       </c>
-      <c r="HU1" t="s">
+      <c r="HV1" t="s">
         <v>272</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="HW1" t="s">
         <v>273</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="HX1" t="s">
         <v>274</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="HY1" t="s">
         <v>275</v>
       </c>
-      <c r="HY1" t="s">
+      <c r="HZ1" t="s">
         <v>276</v>
       </c>
-      <c r="HZ1" t="s">
+      <c r="IA1" t="s">
         <v>277</v>
       </c>
-      <c r="IA1" t="s">
+      <c r="IB1" t="s">
         <v>278</v>
       </c>
-      <c r="IB1" t="s">
+      <c r="IC1" t="s">
         <v>279</v>
       </c>
-      <c r="IC1" t="s">
+      <c r="ID1" t="s">
         <v>280</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IE1" t="s">
         <v>281</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IF1" t="s">
         <v>282</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="IG1" t="s">
         <v>283</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="IH1" t="s">
         <v>284</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="II1" t="s">
         <v>285</v>
       </c>
-      <c r="II1" t="s">
+      <c r="IJ1" t="s">
         <v>286</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IK1" t="s">
         <v>287</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="IL1" t="s">
         <v>288</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="IM1" t="s">
         <v>289</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="IN1" t="s">
         <v>290</v>
       </c>
-      <c r="IN1" t="s">
+      <c r="IO1" t="s">
         <v>291</v>
       </c>
-      <c r="IO1" t="s">
+      <c r="IP1" t="s">
         <v>292</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="IQ1" t="s">
         <v>293</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="IR1" t="s">
         <v>294</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="IS1" t="s">
         <v>295</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="IT1" t="s">
         <v>296</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="IU1" t="s">
         <v>297</v>
       </c>
-      <c r="IU1" t="s">
+      <c r="IV1" t="s">
         <v>298</v>
       </c>
-      <c r="IV1" t="s">
+      <c r="IW1" t="s">
         <v>299</v>
       </c>
-      <c r="IW1" t="s">
+      <c r="IX1" t="s">
         <v>300</v>
       </c>
-      <c r="IX1" t="s">
+      <c r="IY1" t="s">
         <v>301</v>
       </c>
-      <c r="IY1" t="s">
+      <c r="IZ1" t="s">
         <v>302</v>
       </c>
-      <c r="IZ1" t="s">
+      <c r="JA1" t="s">
         <v>303</v>
       </c>
-      <c r="JA1" t="s">
+      <c r="JB1" t="s">
         <v>304</v>
       </c>
-      <c r="JB1" t="s">
+      <c r="JC1" t="s">
         <v>305</v>
       </c>
-      <c r="JC1" t="s">
+      <c r="JD1" t="s">
         <v>306</v>
       </c>
-      <c r="JD1" t="s">
+      <c r="JE1" t="s">
         <v>307</v>
       </c>
-      <c r="JE1" t="s">
+      <c r="JF1" t="s">
         <v>308</v>
       </c>
-      <c r="JF1" t="s">
+      <c r="JG1" t="s">
         <v>309</v>
       </c>
-      <c r="JG1" t="s">
+      <c r="JH1" t="s">
         <v>310</v>
       </c>
-      <c r="JH1" t="s">
+      <c r="JI1" t="s">
         <v>311</v>
       </c>
-      <c r="JI1" t="s">
+      <c r="JJ1" t="s">
         <v>312</v>
       </c>
-      <c r="JJ1" t="s">
+      <c r="JK1" t="s">
         <v>313</v>
       </c>
-      <c r="JK1" t="s">
+      <c r="JL1" t="s">
         <v>314</v>
       </c>
-      <c r="JL1" t="s">
+      <c r="JM1" t="s">
         <v>315</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="JN1" t="s">
         <v>316</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="JO1" t="s">
         <v>317</v>
       </c>
-      <c r="JO1" t="s">
+      <c r="JP1" t="s">
         <v>318</v>
       </c>
-      <c r="JP1" t="s">
+      <c r="JQ1" t="s">
         <v>319</v>
       </c>
-      <c r="JQ1" t="s">
+      <c r="JR1" t="s">
         <v>320</v>
       </c>
-      <c r="JR1" t="s">
+      <c r="JS1" t="s">
         <v>321</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="JT1" t="s">
         <v>322</v>
       </c>
-      <c r="JT1" t="s">
+      <c r="JU1" t="s">
         <v>323</v>
       </c>
-      <c r="JU1" t="s">
+      <c r="JV1" t="s">
         <v>324</v>
       </c>
-      <c r="JV1" t="s">
+      <c r="JW1" t="s">
         <v>325</v>
       </c>
-      <c r="JW1" t="s">
+      <c r="JX1" t="s">
         <v>326</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="JY1" t="s">
         <v>327</v>
       </c>
-      <c r="JY1" t="s">
+      <c r="JZ1" t="s">
         <v>328</v>
       </c>
-      <c r="JZ1" t="s">
+      <c r="KA1" t="s">
         <v>329</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="KB1" t="s">
         <v>330</v>
       </c>
-      <c r="KB1" t="s">
+      <c r="KC1" t="s">
         <v>331</v>
       </c>
-      <c r="KC1" t="s">
+      <c r="KD1" t="s">
         <v>332</v>
       </c>
-      <c r="KD1" t="s">
+      <c r="KE1" t="s">
         <v>333</v>
       </c>
-      <c r="KE1" t="s">
+      <c r="KF1" t="s">
         <v>334</v>
       </c>
-      <c r="KF1" t="s">
+      <c r="KG1" t="s">
         <v>335</v>
       </c>
-      <c r="KG1" t="s">
+      <c r="KH1" t="s">
         <v>336</v>
       </c>
-      <c r="KH1" t="s">
+      <c r="KI1" t="s">
         <v>337</v>
       </c>
-      <c r="KI1" t="s">
+      <c r="KJ1" t="s">
         <v>338</v>
       </c>
-      <c r="KJ1" t="s">
+      <c r="KK1" t="s">
         <v>339</v>
       </c>
-      <c r="KK1" t="s">
+      <c r="KL1" t="s">
         <v>340</v>
       </c>
-      <c r="KL1" t="s">
+      <c r="KM1" t="s">
         <v>341</v>
       </c>
-      <c r="KM1" t="s">
+      <c r="KN1" t="s">
         <v>342</v>
       </c>
-      <c r="KN1" t="s">
+      <c r="KO1" t="s">
         <v>343</v>
       </c>
-      <c r="KO1" t="s">
+      <c r="KP1" t="s">
         <v>344</v>
       </c>
-      <c r="KP1" t="s">
+      <c r="KQ1" t="s">
         <v>345</v>
       </c>
-      <c r="KQ1" t="s">
+      <c r="KR1" t="s">
         <v>346</v>
       </c>
-      <c r="KR1" t="s">
+      <c r="KS1" t="s">
         <v>347</v>
       </c>
-      <c r="KS1" t="s">
+      <c r="KT1" t="s">
         <v>348</v>
       </c>
-      <c r="KT1" t="s">
+      <c r="KU1" t="s">
         <v>349</v>
       </c>
-      <c r="KU1" t="s">
+      <c r="KV1" t="s">
         <v>350</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="KW1" t="s">
         <v>351</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="KX1" t="s">
         <v>352</v>
       </c>
-      <c r="KX1" t="s">
+      <c r="KY1" t="s">
         <v>353</v>
       </c>
-      <c r="KY1" t="s">
+      <c r="KZ1" t="s">
         <v>354</v>
       </c>
-      <c r="KZ1" t="s">
+      <c r="LA1" t="s">
         <v>355</v>
       </c>
-      <c r="LA1" t="s">
+      <c r="LB1" t="s">
         <v>356</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="LC1" t="s">
         <v>357</v>
       </c>
-      <c r="LC1" t="s">
+      <c r="LD1" t="s">
         <v>358</v>
       </c>
-      <c r="LD1" t="s">
+      <c r="LE1" t="s">
         <v>359</v>
       </c>
-      <c r="LE1" t="s">
+      <c r="LF1" t="s">
         <v>360</v>
       </c>
-      <c r="LF1" t="s">
+      <c r="LG1" t="s">
         <v>361</v>
       </c>
-      <c r="LG1" t="s">
+      <c r="LH1" t="s">
         <v>362</v>
       </c>
-      <c r="LH1" t="s">
+      <c r="LI1" t="s">
         <v>363</v>
       </c>
-      <c r="LI1" t="s">
+      <c r="LJ1" t="s">
         <v>364</v>
       </c>
-      <c r="LJ1" t="s">
+      <c r="LK1" t="s">
         <v>365</v>
       </c>
-      <c r="LK1" t="s">
+      <c r="LL1" t="s">
         <v>366</v>
       </c>
-      <c r="LL1" t="s">
+      <c r="LM1" t="s">
         <v>367</v>
       </c>
-      <c r="LM1" t="s">
+      <c r="LN1" t="s">
         <v>368</v>
       </c>
-      <c r="LN1" t="s">
+      <c r="LO1" t="s">
         <v>369</v>
       </c>
-      <c r="LO1" t="s">
+      <c r="LP1" t="s">
         <v>370</v>
       </c>
-      <c r="LP1" t="s">
+      <c r="LQ1" t="s">
         <v>371</v>
       </c>
-      <c r="LQ1" t="s">
+      <c r="LR1" t="s">
         <v>372</v>
       </c>
-      <c r="LR1" t="s">
+      <c r="LS1" t="s">
         <v>373</v>
       </c>
-      <c r="LS1" t="s">
+      <c r="LT1" t="s">
         <v>374</v>
       </c>
-      <c r="LT1" t="s">
+      <c r="LU1" t="s">
         <v>375</v>
       </c>
-      <c r="LU1" t="s">
+      <c r="LV1" t="s">
         <v>376</v>
       </c>
-      <c r="LV1" t="s">
+      <c r="LW1" t="s">
         <v>377</v>
       </c>
-      <c r="LW1" t="s">
+      <c r="LX1" t="s">
         <v>378</v>
       </c>
-      <c r="LX1" t="s">
+      <c r="LY1" t="s">
         <v>379</v>
       </c>
-      <c r="LY1" t="s">
+      <c r="LZ1" t="s">
         <v>380</v>
       </c>
-      <c r="LZ1" t="s">
+      <c r="MA1" t="s">
         <v>381</v>
       </c>
-      <c r="MA1" t="s">
+      <c r="MB1" t="s">
         <v>382</v>
       </c>
-      <c r="MB1" t="s">
+      <c r="MC1" t="s">
         <v>383</v>
       </c>
-      <c r="MC1" t="s">
+      <c r="MD1" t="s">
         <v>384</v>
       </c>
-      <c r="MD1" t="s">
+      <c r="ME1" t="s">
         <v>385</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="MF1" t="s">
         <v>386</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="MG1" t="s">
         <v>387</v>
       </c>
-      <c r="MG1" t="s">
+      <c r="MH1" t="s">
         <v>388</v>
       </c>
-      <c r="MH1" t="s">
+      <c r="MI1" t="s">
         <v>389</v>
       </c>
-      <c r="MI1" t="s">
+      <c r="MJ1" t="s">
         <v>390</v>
       </c>
-      <c r="MJ1" t="s">
+      <c r="MK1" t="s">
         <v>391</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="ML1" t="s">
         <v>392</v>
       </c>
-      <c r="ML1" t="s">
+      <c r="MM1" t="s">
         <v>393</v>
       </c>
-      <c r="MM1" t="s">
+      <c r="MN1" t="s">
         <v>394</v>
       </c>
-      <c r="MN1" t="s">
+      <c r="MO1" t="s">
         <v>395</v>
       </c>
-      <c r="MO1" t="s">
+      <c r="MP1" t="s">
         <v>396</v>
       </c>
-      <c r="MP1" t="s">
+      <c r="MQ1" t="s">
         <v>397</v>
       </c>
-      <c r="MQ1" t="s">
+      <c r="MR1" t="s">
         <v>398</v>
       </c>
-      <c r="MR1" t="s">
+      <c r="MS1" t="s">
         <v>399</v>
       </c>
-      <c r="MS1" t="s">
+      <c r="MT1" t="s">
         <v>400</v>
       </c>
-      <c r="MT1" t="s">
+      <c r="MU1" t="s">
         <v>401</v>
       </c>
-      <c r="MU1" t="s">
+      <c r="MV1" t="s">
         <v>402</v>
       </c>
-      <c r="MV1" t="s">
+      <c r="MW1" t="s">
         <v>403</v>
       </c>
-      <c r="MW1" t="s">
+      <c r="MX1" t="s">
         <v>404</v>
       </c>
-      <c r="MX1" t="s">
+      <c r="MY1" t="s">
         <v>405</v>
       </c>
-      <c r="MY1" t="s">
+      <c r="MZ1" t="s">
         <v>406</v>
       </c>
-      <c r="MZ1" t="s">
+      <c r="NA1" t="s">
         <v>407</v>
       </c>
-      <c r="NA1" t="s">
+      <c r="NB1" t="s">
         <v>408</v>
       </c>
-      <c r="NB1" t="s">
+      <c r="NC1" t="s">
         <v>409</v>
       </c>
-      <c r="NC1" t="s">
+      <c r="ND1" t="s">
         <v>410</v>
       </c>
-      <c r="ND1" t="s">
+      <c r="NE1" t="s">
         <v>411</v>
       </c>
-      <c r="NE1" t="s">
+      <c r="NF1" t="s">
         <v>412</v>
       </c>
-      <c r="NF1" t="s">
+      <c r="NG1" t="s">
         <v>413</v>
       </c>
-      <c r="NG1" t="s">
+      <c r="NH1" t="s">
         <v>414</v>
       </c>
-      <c r="NH1" t="s">
+      <c r="NI1" t="s">
         <v>415</v>
       </c>
-      <c r="NI1" t="s">
+      <c r="NJ1" t="s">
         <v>416</v>
       </c>
-      <c r="NJ1" t="s">
+      <c r="NK1" t="s">
         <v>417</v>
       </c>
-      <c r="NK1" t="s">
+      <c r="NL1" t="s">
         <v>418</v>
       </c>
-      <c r="NL1" t="s">
+      <c r="NM1" t="s">
         <v>419</v>
       </c>
-      <c r="NM1" t="s">
+      <c r="NN1" t="s">
         <v>420</v>
       </c>
-      <c r="NN1" t="s">
+      <c r="NO1" t="s">
         <v>421</v>
       </c>
-      <c r="NO1" t="s">
+      <c r="NP1" t="s">
         <v>422</v>
       </c>
-      <c r="NP1" t="s">
+      <c r="NQ1" t="s">
         <v>423</v>
       </c>
-      <c r="NQ1" t="s">
+      <c r="NR1" t="s">
         <v>424</v>
       </c>
-      <c r="NR1" t="s">
+      <c r="NS1" t="s">
         <v>425</v>
       </c>
-      <c r="NS1" t="s">
+      <c r="NT1" t="s">
         <v>426</v>
       </c>
-      <c r="NT1" t="s">
+      <c r="NU1" t="s">
         <v>427</v>
       </c>
-      <c r="NU1" t="s">
+      <c r="NV1" t="s">
         <v>428</v>
       </c>
-      <c r="NV1" t="s">
+      <c r="NW1" t="s">
         <v>429</v>
       </c>
-      <c r="NW1" t="s">
+      <c r="NX1" t="s">
         <v>430</v>
       </c>
-      <c r="NX1" t="s">
+      <c r="NY1" t="s">
         <v>431</v>
       </c>
-      <c r="NY1" t="s">
+      <c r="NZ1" t="s">
         <v>432</v>
       </c>
-      <c r="NZ1" t="s">
+      <c r="OA1" t="s">
         <v>433</v>
       </c>
-      <c r="OA1" t="s">
+      <c r="OB1" t="s">
         <v>434</v>
       </c>
-      <c r="OB1" t="s">
+      <c r="OC1" t="s">
         <v>435</v>
       </c>
-      <c r="OC1" t="s">
+      <c r="OD1" t="s">
         <v>436</v>
       </c>
-      <c r="OD1" t="s">
+      <c r="OE1" t="s">
         <v>437</v>
       </c>
-      <c r="OE1" t="s">
+      <c r="OF1" t="s">
         <v>438</v>
       </c>
-      <c r="OF1" t="s">
+      <c r="OG1" t="s">
         <v>439</v>
       </c>
-      <c r="OG1" t="s">
+      <c r="OH1" t="s">
         <v>440</v>
       </c>
-      <c r="OH1" t="s">
+      <c r="OI1" t="s">
         <v>441</v>
       </c>
-      <c r="OI1" t="s">
+      <c r="OJ1" t="s">
         <v>442</v>
       </c>
-      <c r="OJ1" t="s">
+      <c r="OK1" t="s">
         <v>443</v>
       </c>
-      <c r="OK1" t="s">
+      <c r="OL1" t="s">
         <v>444</v>
       </c>
-      <c r="OL1" t="s">
+      <c r="OM1" t="s">
         <v>445</v>
       </c>
-      <c r="OM1" t="s">
+      <c r="ON1" t="s">
         <v>446</v>
       </c>
-      <c r="ON1" t="s">
+      <c r="OO1" t="s">
         <v>447</v>
       </c>
-      <c r="OO1" t="s">
+      <c r="OP1" t="s">
         <v>448</v>
       </c>
-      <c r="OP1" t="s">
+      <c r="OQ1" t="s">
         <v>449</v>
       </c>
-      <c r="OQ1" t="s">
+      <c r="OR1" t="s">
         <v>450</v>
       </c>
-      <c r="OR1" t="s">
+      <c r="OS1" t="s">
         <v>451</v>
       </c>
-      <c r="OS1" t="s">
+      <c r="OT1" t="s">
         <v>452</v>
       </c>
-      <c r="OT1" t="s">
+      <c r="OU1" t="s">
         <v>453</v>
       </c>
-      <c r="OU1" t="s">
+      <c r="OV1" t="s">
         <v>454</v>
       </c>
-      <c r="OV1" t="s">
+      <c r="OW1" t="s">
         <v>455</v>
       </c>
-      <c r="OW1" t="s">
+      <c r="OX1" t="s">
         <v>456</v>
       </c>
-      <c r="OX1" t="s">
+      <c r="OY1" t="s">
         <v>457</v>
       </c>
-      <c r="OY1" t="s">
+      <c r="OZ1" t="s">
         <v>458</v>
       </c>
-      <c r="OZ1" t="s">
+      <c r="PA1" t="s">
         <v>459</v>
       </c>
-      <c r="PA1" t="s">
+      <c r="PB1" t="s">
         <v>460</v>
       </c>
-      <c r="PB1" t="s">
+      <c r="PC1" t="s">
         <v>461</v>
       </c>
-      <c r="PC1" t="s">
+      <c r="PD1" t="s">
         <v>462</v>
       </c>
-      <c r="PD1" t="s">
+      <c r="PE1" t="s">
         <v>463</v>
       </c>
-      <c r="PE1" t="s">
+      <c r="PF1" t="s">
         <v>464</v>
       </c>
-      <c r="PF1" t="s">
+      <c r="PG1" t="s">
         <v>465</v>
       </c>
-      <c r="PG1" t="s">
+      <c r="PH1" t="s">
         <v>466</v>
       </c>
-      <c r="PH1" t="s">
+      <c r="PI1" t="s">
         <v>467</v>
       </c>
-      <c r="PI1" t="s">
+      <c r="PJ1" t="s">
         <v>468</v>
       </c>
-      <c r="PJ1" t="s">
+      <c r="PK1" t="s">
         <v>469</v>
       </c>
-      <c r="PK1" t="s">
+      <c r="PL1" t="s">
         <v>470</v>
       </c>
-      <c r="PL1" t="s">
+      <c r="PM1" t="s">
         <v>471</v>
       </c>
-      <c r="PM1" t="s">
+      <c r="PN1" t="s">
         <v>472</v>
       </c>
-      <c r="PN1" t="s">
+      <c r="PO1" t="s">
         <v>473</v>
       </c>
-      <c r="PO1" t="s">
+      <c r="PP1" t="s">
         <v>474</v>
       </c>
-      <c r="PP1" t="s">
+      <c r="PQ1" t="s">
         <v>475</v>
       </c>
-      <c r="PQ1" t="s">
+      <c r="PR1" t="s">
         <v>476</v>
       </c>
-      <c r="PR1" t="s">
+      <c r="PS1" t="s">
         <v>477</v>
       </c>
-      <c r="PS1" t="s">
+      <c r="PT1" t="s">
         <v>478</v>
       </c>
-      <c r="PT1" t="s">
+      <c r="PU1" t="s">
         <v>479</v>
       </c>
-      <c r="PU1" t="s">
+      <c r="PV1" t="s">
         <v>480</v>
       </c>
-      <c r="PV1" t="s">
+      <c r="PW1" t="s">
         <v>481</v>
       </c>
-      <c r="PW1" t="s">
+      <c r="PX1" t="s">
         <v>482</v>
       </c>
-      <c r="PX1" t="s">
+      <c r="PY1" t="s">
         <v>483</v>
-      </c>
-      <c r="PY1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:441" x14ac:dyDescent="0.25">
@@ -6019,7 +7275,7 @@
         <v>14</v>
       </c>
       <c r="KC2" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD2">
         <v>547</v>
@@ -6178,7 +7434,7 @@
         <v>8</v>
       </c>
       <c r="MD2" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="ME2">
         <v>247</v>
@@ -7344,7 +8600,7 @@
         <v>14</v>
       </c>
       <c r="KC3" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD3">
         <v>547</v>
@@ -7503,7 +8759,7 @@
         <v>8</v>
       </c>
       <c r="MD3" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="ME3">
         <v>247</v>
@@ -8669,7 +9925,7 @@
         <v>14</v>
       </c>
       <c r="KC4" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD4">
         <v>547</v>
@@ -8828,7 +10084,7 @@
         <v>8</v>
       </c>
       <c r="MD4" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="ME4">
         <v>248</v>
@@ -9994,7 +11250,7 @@
         <v>14</v>
       </c>
       <c r="KC5" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD5">
         <v>547</v>
@@ -10153,7 +11409,7 @@
         <v>8</v>
       </c>
       <c r="MD5" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="ME5">
         <v>248</v>
@@ -11319,7 +12575,7 @@
         <v>14</v>
       </c>
       <c r="KC6" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD6">
         <v>547</v>
@@ -11478,7 +12734,7 @@
         <v>8</v>
       </c>
       <c r="MD6" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="ME6">
         <v>249</v>
@@ -12644,7 +13900,7 @@
         <v>14</v>
       </c>
       <c r="KC7" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD7">
         <v>547</v>
@@ -12803,7 +14059,7 @@
         <v>8</v>
       </c>
       <c r="MD7" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="ME7">
         <v>250</v>
@@ -13969,7 +15225,7 @@
         <v>14</v>
       </c>
       <c r="KC8" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="KD8">
         <v>548</v>
@@ -14128,7 +15384,7 @@
         <v>8</v>
       </c>
       <c r="MD8" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="ME8">
         <v>251</v>
@@ -15294,7 +16550,7 @@
         <v>14</v>
       </c>
       <c r="KC9" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="KD9">
         <v>548</v>
@@ -15453,7 +16709,7 @@
         <v>8</v>
       </c>
       <c r="MD9" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="ME9">
         <v>252</v>
@@ -16619,7 +17875,7 @@
         <v>14</v>
       </c>
       <c r="KC10" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD10">
         <v>547</v>
@@ -16778,7 +18034,7 @@
         <v>8</v>
       </c>
       <c r="MD10" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="ME10">
         <v>252</v>
@@ -17944,7 +19200,7 @@
         <v>14</v>
       </c>
       <c r="KC11" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD11">
         <v>547</v>
@@ -18103,7 +19359,7 @@
         <v>8</v>
       </c>
       <c r="MD11" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="ME11">
         <v>251</v>
@@ -19269,7 +20525,7 @@
         <v>14</v>
       </c>
       <c r="KC12" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD12">
         <v>547</v>
@@ -19428,7 +20684,7 @@
         <v>8</v>
       </c>
       <c r="MD12" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="ME12">
         <v>248</v>
@@ -20594,7 +21850,7 @@
         <v>14</v>
       </c>
       <c r="KC13" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD13">
         <v>547</v>
@@ -20753,7 +22009,7 @@
         <v>8</v>
       </c>
       <c r="MD13" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="ME13">
         <v>246</v>
@@ -21919,7 +23175,7 @@
         <v>14</v>
       </c>
       <c r="KC14" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD14">
         <v>547</v>
@@ -22078,7 +23334,7 @@
         <v>8</v>
       </c>
       <c r="MD14" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="ME14">
         <v>245</v>
@@ -23244,7 +24500,7 @@
         <v>14</v>
       </c>
       <c r="KC15" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD15">
         <v>547</v>
@@ -23403,7 +24659,7 @@
         <v>8</v>
       </c>
       <c r="MD15" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="ME15">
         <v>245</v>
@@ -24569,7 +25825,7 @@
         <v>14</v>
       </c>
       <c r="KC16" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD16">
         <v>547</v>
@@ -24728,7 +25984,7 @@
         <v>8</v>
       </c>
       <c r="MD16" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="ME16">
         <v>246</v>
@@ -25894,7 +27150,7 @@
         <v>14</v>
       </c>
       <c r="KC17" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD17">
         <v>547</v>
@@ -26053,7 +27309,7 @@
         <v>8</v>
       </c>
       <c r="MD17" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="ME17">
         <v>247</v>
@@ -27219,7 +28475,7 @@
         <v>14</v>
       </c>
       <c r="KC18" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD18">
         <v>547</v>
@@ -27378,7 +28634,7 @@
         <v>8</v>
       </c>
       <c r="MD18" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="ME18">
         <v>250</v>
@@ -28544,7 +29800,7 @@
         <v>14</v>
       </c>
       <c r="KC19" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD19">
         <v>547</v>
@@ -28703,7 +29959,7 @@
         <v>8</v>
       </c>
       <c r="MD19" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="ME19">
         <v>249</v>
@@ -29869,7 +31125,7 @@
         <v>14</v>
       </c>
       <c r="KC20" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD20">
         <v>547</v>
@@ -30028,7 +31284,7 @@
         <v>8</v>
       </c>
       <c r="MD20" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="ME20">
         <v>248</v>
@@ -31194,7 +32450,7 @@
         <v>14</v>
       </c>
       <c r="KC21" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD21">
         <v>547</v>
@@ -31353,7 +32609,7 @@
         <v>8</v>
       </c>
       <c r="MD21" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="ME21">
         <v>246</v>
@@ -32519,7 +33775,7 @@
         <v>14</v>
       </c>
       <c r="KC22" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD22">
         <v>547</v>
@@ -32678,7 +33934,7 @@
         <v>8</v>
       </c>
       <c r="MD22" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="ME22">
         <v>245</v>
@@ -33844,7 +35100,7 @@
         <v>14</v>
       </c>
       <c r="KC23" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD23">
         <v>547</v>
@@ -34003,7 +35259,7 @@
         <v>8</v>
       </c>
       <c r="MD23" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="ME23">
         <v>244</v>
@@ -35169,7 +36425,7 @@
         <v>14</v>
       </c>
       <c r="KC24" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD24">
         <v>547</v>
@@ -35328,7 +36584,7 @@
         <v>8</v>
       </c>
       <c r="MD24" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="ME24">
         <v>244</v>
@@ -36494,7 +37750,7 @@
         <v>14</v>
       </c>
       <c r="KC25" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD25">
         <v>547</v>
@@ -36653,7 +37909,7 @@
         <v>8</v>
       </c>
       <c r="MD25" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="ME25">
         <v>244</v>
@@ -37819,7 +39075,7 @@
         <v>14</v>
       </c>
       <c r="KC26" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD26">
         <v>547</v>
@@ -37978,7 +39234,7 @@
         <v>8</v>
       </c>
       <c r="MD26" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="ME26">
         <v>245</v>
@@ -39144,7 +40400,7 @@
         <v>14</v>
       </c>
       <c r="KC27" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="KD27">
         <v>547</v>
@@ -39303,7 +40559,7 @@
         <v>8</v>
       </c>
       <c r="MD27" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="ME27">
         <v>246</v>
@@ -39615,11 +40871,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA253A4F-D456-4374-BB0A-526FB4FDFB03}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
